--- a/doc/File Catalog - Version 1.xlsx
+++ b/doc/File Catalog - Version 1.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
-  <fileSharing readOnlyRecommended="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annelisaesparza/GRAM/FraMED/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4968B9F-D61B-A149-A817-DE2117C40C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C9C24E1-49BB-1B47-A0ED-9ACC7DA7BAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{5457DF71-E2F2-3243-B9F8-C2F27E0446E9}"/>
   </bookViews>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="592">
   <si>
     <t>Path</t>
   </si>
@@ -3438,6 +3437,9 @@
     <t>true/false</t>
   </si>
   <si>
+    <t>Line</t>
+  </si>
+  <si>
     <t>Var::ThresholdOvershoot</t>
   </si>
   <si>
@@ -3465,6 +3467,9 @@
     <t>N/A, automatically set to /results/ subdirectory</t>
   </si>
   <si>
+    <t>66-68</t>
+  </si>
+  <si>
     <t>Var::instanceStartTime, Var::runStartTime</t>
   </si>
   <si>
@@ -3492,12 +3497,18 @@
     <t>Determines whether the simulation has been ran before</t>
   </si>
   <si>
+    <t>71-75</t>
+  </si>
+  <si>
     <t>Var::N</t>
   </si>
   <si>
     <t>Var::L</t>
   </si>
   <si>
+    <t>82 or 132</t>
+  </si>
+  <si>
     <t>Number of discretization points</t>
   </si>
   <si>
@@ -3581,6 +3592,12 @@
     </r>
   </si>
   <si>
+    <t>86 or 142</t>
+  </si>
+  <si>
+    <t>90 or 138</t>
+  </si>
+  <si>
     <t>static double</t>
   </si>
   <si>
@@ -3590,18 +3607,27 @@
     <t>Var::z_shift</t>
   </si>
   <si>
+    <t xml:space="preserve">99 or </t>
+  </si>
+  <si>
     <t>Vertical displacement of the cloud</t>
   </si>
   <si>
     <t>Var::y_shift</t>
   </si>
   <si>
+    <t xml:space="preserve">100 or </t>
+  </si>
+  <si>
     <t>Horizontal influence of a windshear/displacement of the upper part of the cloud</t>
   </si>
   <si>
     <t>Var::z_gnd</t>
   </si>
   <si>
+    <t xml:space="preserve">96 or </t>
+  </si>
+  <si>
     <t>Altitude of the ground plane</t>
   </si>
   <si>
@@ -3661,6 +3687,12 @@
     </r>
   </si>
   <si>
+    <t>109 or 372</t>
+  </si>
+  <si>
+    <t>110 or 373</t>
+  </si>
+  <si>
     <t>Altitudes for simulation</t>
   </si>
   <si>
@@ -3827,6 +3859,27 @@
     </r>
   </si>
   <si>
+    <t>114 or</t>
+  </si>
+  <si>
+    <t>115 or</t>
+  </si>
+  <si>
+    <t>120 or</t>
+  </si>
+  <si>
+    <t>121 or</t>
+  </si>
+  <si>
+    <t>122 or</t>
+  </si>
+  <si>
+    <t>123 or</t>
+  </si>
+  <si>
+    <t>124 or</t>
+  </si>
+  <si>
     <t>X-coordinate of the initiation point</t>
   </si>
   <si>
@@ -4085,6 +4138,9 @@
     <t>Ground altitude (1 value, in meters)</t>
   </si>
   <si>
+    <t>Initiation, propagation of positive and negative channels</t>
+  </si>
+  <si>
     <t>Voltage drops in positive and negative channels</t>
   </si>
   <si>
@@ -4248,9 +4304,6 @@
   </si>
   <si>
     <t>../results/dxyz.dat              ../results/Nxyz.dat ../results/InitPoint.dat ../results/z_gnd.dat ../results/EstablishedLinks.dat</t>
-  </si>
-  <si>
-    <t>../results/dxyz.dat             ../results/Nxyz.dat ../results/rhoAmb.dat ../results/z_gnd.dat</t>
   </si>
   <si>
     <t>#include "ResGrid.h"                #include "Matrix.h"                   #include "Constants.h"</t>
@@ -4843,12 +4896,6 @@
     <t>../Figures/lightning.mp4</t>
   </si>
   <si>
-    <t>Plot1D_ChannelCharge.m (1) Plot1D_ChannelPotential.m (2) Plot1D_DipoleMoment.m (3)  Plot1D_EsEnergy.m (4) Plot1D_FieldEvolution.m (5-7) Plot1D_Fields.m (8-10)         Plot2D_Fields3x3.m (11) Plot2D_FieldLines.m (12)         LMA_main.m (13-17)</t>
-  </si>
-  <si>
-    <t>(1)../Figures/ChargeTransfer.eps (2)../Figures/ChannelPotential.eps (3)../Figures/DipoleMoment.eps (4)../Figures/EsEnergy.eps (5)../Figures/FieldTimeEvolution.eps (6)../Figures/phiTimeEvolution.eps (7)../Figures/ETimeEvolution.eps (8)../Figures/InitiationRequirements.eps (9)../Figures/phi.eps             (10)../Figures/E.eps (11)../Figures/FieldSpaceEvolution.eps (12)../Figures/FieldLines.eps (13)../Figures/LMA.eps (14)../Figures/LMA.mp4                (15)../Figures/xz.png                      (16)../Figures/yz.png                      (17)../Figures/xy.png</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Contains the finer details of </t>
     </r>
@@ -4876,7 +4923,158 @@
     </r>
   </si>
   <si>
-    <t>Initiation, propagation of positive and negative channels (critical electric fields)</t>
+    <t>plottingChargeRegions.m</t>
+  </si>
+  <si>
+    <t>Plots the charged cloud structure.</t>
+  </si>
+  <si>
+    <t>Plot3D_CloudDistribution.m</t>
+  </si>
+  <si>
+    <t>Visualizes the charged cloud structure and ground with custom colormap. Outputs a figure to the screen but does not save it to a file automatically.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[] = Plot3D_CloudDistribution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">: Script itself is a function. See </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Main Purpose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>../results/dxyz.dat                 ../results/Nxyz.dat                ../results/z_gnd.dat          ../results/rhoAmb.dat     plottingChargeRegions.m</t>
+  </si>
+  <si>
+    <t>createRedBlueColorMap.m colorDetermination.m</t>
+  </si>
+  <si>
+    <t>Yes, plot of the charged cloud structure and ground.</t>
+  </si>
+  <si>
+    <t>Yes, plot of the charged cloud structure.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[] = plottingChargeRegions(colorbarRange, alphaValue, rhoData ,Xval, Yval, Zval, xval, yval, zval)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Takes the mesh grid values (X,Y,Z) and the linear spaces (x,y,z) with the charge density values (rhoData) and plots them with a particular transparency (alphaValue). Colormap assignment is dependent on 'colorbarRange,' currently assigned to the colorblind-friendly 'white' mode.</t>
+    </r>
+  </si>
+  <si>
+    <t>createRedBlueColorMap.m</t>
+  </si>
+  <si>
+    <t>Creates a custom color map for negative charge densities (blue) and positive charge densities (red).</t>
+  </si>
+  <si>
+    <r>
+      <t>[] = createRedBlueColorMap(neutralcolor)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">: Script itself is a function. 'neutralcolor' is automatically assigned to the colorblind-friendly 'white' mode with gradients from blue and red to white with gray representing neutral charge, but can be set to a constant gradient from blue to gray to red. See </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Main Purpose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>colorDetermination.m</t>
+  </si>
+  <si>
+    <t>Determines the index and RGB triplet for a particular value based on the maximum value for a quantity's range.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[colorIndex,colorRGB] = colorDetermination(currentValue,maxValue,colorMap)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>: Script itself is a function. Determines based on the 'currentValue' and 'maxValue' of a quantity and the 'colorMap' (101x3 matrix representing RGB triplets) a value would fall. Currently used for charge densities but not limited to a particular measurement.</t>
+    </r>
+  </si>
+  <si>
+    <t>Plot1D_ChannelCharge.m (1) Plot1D_ChannelPotential.m (2) Plot1D_DipoleMoment.m (3)  Plot1D_EsEnergy.m (4) Plot1D_FieldEvolution.m (5-7) Plot1D_Fields.m (8-10)         Plot2D_Fields3x3.m (11) Plot2D_FieldLines.m (12)         LMA_main.m (13-17) Plot3D_CloudDistribution.m (18)</t>
+  </si>
+  <si>
+    <t>(1)../Figures/ChargeTransfer.eps (2)../Figures/ChannelPotential.eps (3)../Figures/DipoleMoment.eps (4)../Figures/EsEnergy.eps (5)../Figures/FieldTimeEvolution.eps (6)../Figures/phiTimeEvolution.eps (7)../Figures/ETimeEvolution.eps (8)../Figures/InitiationRequirements.eps (9)../Figures/phi.eps             (10)../Figures/E.eps (11)../Figures/FieldSpaceEvolution.eps (12)../Figures/FieldLines.eps (13)../Figures/LMA.eps (14)../Figures/LMA.mp4                (15)../Figures/xz.png                      (16)../Figures/yz.png                      (17)../Figures/xy.png (18)../Figures/CloudDistribution.eps</t>
+  </si>
+  <si>
+    <t>../results/dxyz.dat             ../results/Nxyz.dat ../results/rhoAmb.dat ../results/z_gnd.dat    plottingChargeRegions.m</t>
+  </si>
+  <si>
+    <t>../results/dxyz.dat             ../results/Nxyz.dat ../results/rhoAmb.dat ../results/z_gnd.dat plottingChargeRegions.m</t>
   </si>
 </sst>
 </file>
@@ -5018,7 +5216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5051,6 +5249,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5208,10 +5409,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE7B8321-61BB-804F-B9D7-7BB64704881D}" name="Table1" displayName="Table1" ref="A1:H140" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H140" xr:uid="{DE7B8321-61BB-804F-B9D7-7BB64704881D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H140">
-    <sortCondition ref="A1:A140"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE7B8321-61BB-804F-B9D7-7BB64704881D}" name="Table1" displayName="Table1" ref="A1:H144" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H144" xr:uid="{DE7B8321-61BB-804F-B9D7-7BB64704881D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H144">
+    <sortCondition ref="A1:A144"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1746C3DB-5ADF-F84C-8078-3CB93355F696}" name="Path" dataDxfId="7"/>
@@ -5524,10 +5725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EE7850-2CC9-AC46-AA51-3EFFF661710B}">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -5571,7 +5772,7 @@
     </row>
     <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>108</v>
@@ -5580,24 +5781,24 @@
         <v>286</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="E2" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>102</v>
@@ -5606,24 +5807,24 @@
         <v>285</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>103</v>
@@ -5632,24 +5833,24 @@
         <v>285</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>104</v>
@@ -5658,24 +5859,24 @@
         <v>285</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>105</v>
@@ -5684,24 +5885,24 @@
         <v>285</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>106</v>
@@ -5710,24 +5911,24 @@
         <v>285</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>107</v>
@@ -5736,24 +5937,24 @@
         <v>285</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>83</v>
@@ -5767,19 +5968,19 @@
       <c r="E9" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="15" t="s">
+      <c r="F9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>84</v>
@@ -5794,18 +5995,18 @@
         <v>175</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>85</v>
@@ -5820,18 +6021,18 @@
         <v>176</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>86</v>
@@ -5839,25 +6040,25 @@
       <c r="C12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="20" t="s">
         <v>179</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="F12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>87</v>
@@ -5865,7 +6066,7 @@
       <c r="C13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="20" t="s">
         <v>171</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -5874,16 +6075,16 @@
       <c r="F13" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>180</v>
@@ -5898,18 +6099,18 @@
         <v>181</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>88</v>
@@ -5926,16 +6127,16 @@
       <c r="F15" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="15" t="s">
+      <c r="G15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>89</v>
@@ -5943,25 +6144,25 @@
       <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>186</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>255</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>90</v>
@@ -5975,19 +6176,19 @@
       <c r="E17" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="15" t="s">
+      <c r="F17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>91</v>
@@ -6001,19 +6202,19 @@
       <c r="E18" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="15" t="s">
+      <c r="F18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>92</v>
@@ -6028,18 +6229,18 @@
         <v>190</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>93</v>
@@ -6054,18 +6255,18 @@
         <v>178</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>94</v>
@@ -6079,19 +6280,19 @@
       <c r="E21" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="15" t="s">
+      <c r="F21" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>95</v>
@@ -6099,7 +6300,7 @@
       <c r="C22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>194</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -6108,16 +6309,16 @@
       <c r="F22" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="15" t="s">
+      <c r="G22" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>96</v>
@@ -6125,7 +6326,7 @@
       <c r="C23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="20" t="s">
         <v>195</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -6134,16 +6335,16 @@
       <c r="F23" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>97</v>
@@ -6158,18 +6359,18 @@
         <v>164</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>98</v>
@@ -6183,19 +6384,19 @@
       <c r="E25" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="15" t="s">
+      <c r="F25" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>99</v>
@@ -6203,25 +6404,25 @@
       <c r="C26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="20" t="s">
         <v>247</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>100</v>
@@ -6236,18 +6437,18 @@
         <v>197</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>101</v>
@@ -6264,16 +6465,16 @@
       <c r="F28" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="15" t="s">
+      <c r="G28" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>109</v>
@@ -6282,24 +6483,24 @@
         <v>285</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>110</v>
@@ -6308,24 +6509,24 @@
         <v>285</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>111</v>
@@ -6333,25 +6534,25 @@
       <c r="C31" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="15" t="s">
+      <c r="D31" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>112</v>
@@ -6362,22 +6563,22 @@
       <c r="D32" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="15" t="s">
+      <c r="E32" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>113</v>
@@ -6385,25 +6586,25 @@
       <c r="C33" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="15" t="s">
+      <c r="D33" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>114</v>
@@ -6412,24 +6613,24 @@
         <v>285</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H34" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>115</v>
@@ -6438,24 +6639,24 @@
         <v>285</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>116</v>
@@ -6463,25 +6664,25 @@
       <c r="C36" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="15" t="s">
+      <c r="D36" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>117</v>
@@ -6490,24 +6691,24 @@
         <v>285</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>118</v>
@@ -6516,24 +6717,24 @@
         <v>285</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>119</v>
@@ -6541,25 +6742,25 @@
       <c r="C39" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="15" t="s">
+      <c r="D39" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>120</v>
@@ -6568,24 +6769,24 @@
         <v>285</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>121</v>
@@ -6593,25 +6794,25 @@
       <c r="C41" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" s="15" t="s">
+      <c r="D41" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>122</v>
@@ -6619,25 +6820,25 @@
       <c r="C42" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" s="15" t="s">
+      <c r="D42" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>123</v>
@@ -6645,25 +6846,25 @@
       <c r="C43" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="15" t="s">
+      <c r="D43" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>124</v>
@@ -6672,24 +6873,24 @@
         <v>285</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>125</v>
@@ -6697,25 +6898,25 @@
       <c r="C45" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="15" t="s">
+      <c r="D45" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>126</v>
@@ -6723,25 +6924,25 @@
       <c r="C46" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H46" s="15" t="s">
+      <c r="D46" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>127</v>
@@ -6750,24 +6951,24 @@
         <v>285</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H47" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>128</v>
@@ -6775,25 +6976,25 @@
       <c r="C48" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" s="15" t="s">
+      <c r="D48" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>129</v>
@@ -6801,25 +7002,25 @@
       <c r="C49" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="15" t="s">
+      <c r="D49" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>130</v>
@@ -6827,25 +7028,25 @@
       <c r="C50" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>546</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="15" t="s">
+      <c r="D50" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>131</v>
@@ -6853,25 +7054,25 @@
       <c r="C51" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>547</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" s="15" t="s">
+      <c r="D51" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>132</v>
@@ -6880,24 +7081,24 @@
         <v>152</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H52" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>133</v>
@@ -6906,24 +7107,24 @@
         <v>285</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H53" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>134</v>
@@ -6934,22 +7135,22 @@
       <c r="D54" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" s="15" t="s">
+      <c r="E54" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>104</v>
@@ -6958,24 +7159,24 @@
         <v>285</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H55" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>135</v>
@@ -6984,24 +7185,24 @@
         <v>285</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>136</v>
@@ -7010,24 +7211,24 @@
         <v>285</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H57" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>137</v>
@@ -7036,24 +7237,24 @@
         <v>285</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>138</v>
@@ -7062,24 +7263,24 @@
         <v>285</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H59" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>139</v>
@@ -7088,24 +7289,24 @@
         <v>285</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>140</v>
@@ -7114,24 +7315,24 @@
         <v>285</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H61" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>141</v>
@@ -7140,24 +7341,24 @@
         <v>285</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H62" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>105</v>
@@ -7166,24 +7367,24 @@
         <v>285</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H63" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>142</v>
@@ -7192,24 +7393,24 @@
         <v>285</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H64" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>143</v>
@@ -7218,24 +7419,24 @@
         <v>285</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H65" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H65" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>144</v>
@@ -7244,24 +7445,24 @@
         <v>285</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H66" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>145</v>
@@ -7270,24 +7471,24 @@
         <v>153</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H67" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>146</v>
@@ -7296,24 +7497,24 @@
         <v>285</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H68" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>147</v>
@@ -7322,24 +7523,24 @@
         <v>285</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H69" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>148</v>
@@ -7348,24 +7549,24 @@
         <v>285</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H70" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>149</v>
@@ -7374,24 +7575,24 @@
         <v>285</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H71" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H71" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>150</v>
@@ -7400,24 +7601,24 @@
         <v>285</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H72" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>106</v>
@@ -7426,24 +7627,24 @@
         <v>285</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H73" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H73" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>61</v>
@@ -7451,7 +7652,7 @@
       <c r="C74" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="20" t="s">
         <v>202</v>
       </c>
       <c r="E74" s="5" t="s">
@@ -7460,16 +7661,16 @@
       <c r="F74" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G74" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H74" s="15" t="s">
+      <c r="G74" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>62</v>
@@ -7486,16 +7687,16 @@
       <c r="F75" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G75" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H75" s="15" t="s">
+      <c r="G75" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>63</v>
@@ -7512,16 +7713,16 @@
       <c r="F76" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G76" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H76" s="15" t="s">
+      <c r="G76" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>64</v>
@@ -7532,22 +7733,22 @@
       <c r="D77" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G77" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H77" s="15" t="s">
+      <c r="G77" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H77" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>65</v>
@@ -7564,16 +7765,16 @@
       <c r="F78" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G78" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H78" s="15" t="s">
+      <c r="G78" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>66</v>
@@ -7593,13 +7794,13 @@
       <c r="G79" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H79" s="15" t="s">
+      <c r="H79" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>67</v>
@@ -7616,16 +7817,16 @@
       <c r="F80" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G80" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H80" s="15" t="s">
+      <c r="G80" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H80" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="372" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>68</v>
@@ -7640,7 +7841,7 @@
         <v>281</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>283</v>
@@ -7651,7 +7852,7 @@
     </row>
     <row r="82" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>69</v>
@@ -7668,16 +7869,16 @@
       <c r="F82" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G82" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H82" s="15" t="s">
+      <c r="G82" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>70</v>
@@ -7685,7 +7886,7 @@
       <c r="C83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="20" t="s">
         <v>219</v>
       </c>
       <c r="E83" s="5" t="s">
@@ -7694,16 +7895,16 @@
       <c r="F83" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G83" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H83" s="15" t="s">
+      <c r="G83" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>71</v>
@@ -7720,16 +7921,16 @@
       <c r="F84" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G84" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H84" s="15" t="s">
+      <c r="G84" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>72</v>
@@ -7746,16 +7947,16 @@
       <c r="F85" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G85" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H85" s="15" t="s">
+      <c r="G85" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>73</v>
@@ -7764,24 +7965,24 @@
         <v>81</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="E86" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="E86" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G86" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H86" s="15" t="s">
+      <c r="G86" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>74</v>
@@ -7798,16 +7999,16 @@
       <c r="F87" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G87" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H87" s="15" t="s">
+      <c r="G87" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H87" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>75</v>
@@ -7824,16 +8025,16 @@
       <c r="F88" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G88" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H88" s="15" t="s">
+      <c r="G88" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>76</v>
@@ -7850,16 +8051,16 @@
       <c r="F89" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G89" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H89" s="15" t="s">
+      <c r="G89" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H89" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>77</v>
@@ -7876,16 +8077,16 @@
       <c r="F90" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G90" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H90" s="15" t="s">
+      <c r="G90" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H90" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>78</v>
@@ -7902,16 +8103,16 @@
       <c r="F91" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G91" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H91" s="15" t="s">
+      <c r="G91" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H91" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>79</v>
@@ -7928,16 +8129,16 @@
       <c r="F92" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G92" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H92" s="15" t="s">
+      <c r="G92" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H92" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>80</v>
@@ -7948,22 +8149,22 @@
       <c r="D93" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G93" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H93" s="15" t="s">
+      <c r="G93" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H93" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>6</v>
@@ -7975,21 +8176,21 @@
         <v>54</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="G94" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="G94" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>8</v>
@@ -8001,21 +8202,21 @@
         <v>154</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>478</v>
+        <v>591</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="H95" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="H95" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>9</v>
@@ -8024,24 +8225,24 @@
         <v>7</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>383</v>
+        <v>400</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
@@ -8050,1137 +8251,1241 @@
         <v>7</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H97" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H98" s="2" t="s">
+      <c r="D100" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B99" s="1" t="s">
+    <row r="101" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H99" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H100" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H101" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G102" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H102" s="15" t="s">
+      <c r="D102" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H102" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F104" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H104" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H105" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G105" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="F106" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G106" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G106" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H107" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="F108" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G108" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H108" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E109" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="E109" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H109" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G111" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H111" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="E112" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="E112" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>57</v>
+        <v>500</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="289" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H113" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E114" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="E114" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>411</v>
+        <v>14</v>
       </c>
       <c r="G114" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="306" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>461</v>
+        <v>554</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G115" s="16" t="s">
-        <v>57</v>
+        <v>588</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>589</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="E116" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="E116" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G116" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="G116" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>381</v>
+        <v>480</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G117" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="G117" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="E118" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="E118" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G118" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="G118" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D119" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E119" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G119" s="16" t="s">
+      <c r="G119" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="E120" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="E120" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G120" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="G120" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E121" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="E121" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="G121" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="G121" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>491</v>
+        <v>507</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G122" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="G122" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>160</v>
+      <c r="D123" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="G123" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="G123" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G124" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="G124" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>381</v>
+      <c r="D125" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G125" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="G125" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>57</v>
+        <v>515</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>514</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="G126" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="G126" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>57</v>
+        <v>516</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="G127" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="G127" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="E128" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G128" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="G128" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="E129" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G129" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="G129" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>506</v>
+        <v>42</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="E131" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="E131" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G131" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>45</v>
+        <v>524</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G132" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="E133" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="E133" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="G133" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="G133" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>57</v>
+        <v>530</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>528</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="G134" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C135" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C135" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>519</v>
+        <v>575</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>576</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G135" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="G135" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>404</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>521</v>
+        <v>533</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="G136" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="G136" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>158</v>
+        <v>532</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>549</v>
+        <v>534</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="G138" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="G138" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>525</v>
+        <v>538</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>539</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G139" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="G139" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>528</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>531</v>
+        <v>156</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>529</v>
+        <v>158</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>404</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G141" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G142" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -9193,675 +9498,784 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01BFB3B-9A0F-884B-BDC0-9CD3A03B4F46}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="127.5" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10" style="12" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="127.5" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>259</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="12">
+        <v>57</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="12">
+        <v>38</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="12">
+        <v>40</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="12">
+        <v>39</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="12">
+        <v>42</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="12">
+        <v>44</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>333</v>
+        <v>447</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="12">
+        <v>45</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>333</v>
+        <v>447</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="12">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>333</v>
+        <v>447</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="12">
+        <v>47</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>333</v>
+        <v>447</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="12">
+        <v>48</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>333</v>
+        <v>447</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="12">
+        <v>49</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>333</v>
+        <v>447</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="12">
+        <v>50</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>333</v>
+        <v>447</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="12">
+        <v>51</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>333</v>
+        <v>447</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>428</v>
+      <c r="B16" s="12">
+        <v>52</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>320</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>333</v>
+        <v>447</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>428</v>
+      <c r="B17" s="12">
+        <v>53</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>321</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" s="12">
+        <v>55</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="12">
+        <v>58</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>342</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>349</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="B24" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G24" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>334</v>
+        <v>363</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>364</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="F27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>57</v>
+        <v>372</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>365</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>57</v>
+        <v>373</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>375</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>365</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>427</v>
+        <v>386</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>441</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>430</v>
+        <v>387</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>442</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>379</v>
+        <v>392</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
